--- a/artfynd/A 19990-2019.xlsx
+++ b/artfynd/A 19990-2019.xlsx
@@ -913,10 +913,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>74918824</v>
+        <v>74918827</v>
       </c>
       <c r="B4" t="n">
-        <v>88933</v>
+        <v>103265</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -925,40 +925,42 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>256335</v>
+        <v>221144</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Fagraskog, Sm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>548761.3979890828</v>
+        <v>548731.5793738363</v>
       </c>
       <c r="R4" t="n">
-        <v>6316789.019183607</v>
+        <v>6316818.087442902</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1028,10 +1030,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>74918837</v>
+        <v>74918841</v>
       </c>
       <c r="B5" t="n">
-        <v>90638</v>
+        <v>73680</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1040,25 +1042,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1968</v>
+        <v>306</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Kornig nållav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Chaenotheca chlorella</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1070,10 +1072,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>548676.2777817947</v>
+        <v>548718.5936764533</v>
       </c>
       <c r="R5" t="n">
-        <v>6316878.998678687</v>
+        <v>6316901.286082684</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1143,10 +1145,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>74918827</v>
+        <v>74918848</v>
       </c>
       <c r="B6" t="n">
-        <v>103265</v>
+        <v>103178</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1159,21 +1161,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>221144</v>
+        <v>221141</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Gullviva</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Primula veris</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1187,10 +1189,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>548731.5793738363</v>
+        <v>548759.7599674745</v>
       </c>
       <c r="R6" t="n">
-        <v>6316818.087442902</v>
+        <v>6316928.463234497</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1217,7 +1219,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2018-11-09</t>
+          <t>2018-11-02</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1227,7 +1229,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2018-11-09</t>
+          <t>2018-11-02</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1260,10 +1262,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>74918841</v>
+        <v>74918851</v>
       </c>
       <c r="B7" t="n">
-        <v>73680</v>
+        <v>103265</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1276,36 +1278,38 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>306</v>
+        <v>221144</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Kornig nållav</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Chaenotheca chlorella</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Fagraskog, Sm</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>548718.5936764533</v>
+        <v>548759.7599674745</v>
       </c>
       <c r="R7" t="n">
-        <v>6316901.286082684</v>
+        <v>6316928.463234497</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1375,10 +1379,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>74918848</v>
+        <v>74918845</v>
       </c>
       <c r="B8" t="n">
-        <v>103178</v>
+        <v>4711</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1391,27 +1395,28 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>221141</v>
+        <v>100299</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Gullviva</t>
+          <t>Thomsons trägnagare</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Primula veris</t>
+          <t>Cacotemnus thomsoni</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Kraatz, 1881)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1419,10 +1424,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>548759.7599674745</v>
+        <v>548718.5936764533</v>
       </c>
       <c r="R8" t="n">
-        <v>6316928.463234497</v>
+        <v>6316901.286082684</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1492,10 +1497,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>74918851</v>
+        <v>74918868</v>
       </c>
       <c r="B9" t="n">
-        <v>103265</v>
+        <v>73507</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1508,38 +1513,36 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>221144</v>
+        <v>6428</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Rostfläck</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Arthonia vinosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>Leight.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Fagraskog, Sm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>548759.7599674745</v>
+        <v>548706.4407073758</v>
       </c>
       <c r="R9" t="n">
-        <v>6316928.463234497</v>
+        <v>6316820.51631712</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1582,6 +1585,11 @@
       <c r="AB9" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>På björk och al</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1609,10 +1617,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>74918845</v>
+        <v>74918824</v>
       </c>
       <c r="B10" t="n">
-        <v>4711</v>
+        <v>88933</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1621,43 +1629,40 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100299</v>
+        <v>256335</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Thomsons trägnagare</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Cacotemnus thomsoni</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Kraatz, 1881)</t>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Fagraskog, Sm</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>548718.5936764533</v>
+        <v>548761.3979890828</v>
       </c>
       <c r="R10" t="n">
-        <v>6316901.286082684</v>
+        <v>6316789.019183607</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1684,7 +1689,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2018-11-02</t>
+          <t>2018-11-09</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1694,7 +1699,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2018-11-02</t>
+          <t>2018-11-09</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1727,10 +1732,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>74918868</v>
+        <v>74918837</v>
       </c>
       <c r="B11" t="n">
-        <v>73507</v>
+        <v>90638</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1739,25 +1744,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6428</v>
+        <v>1968</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Rostfläck</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Arthonia vinosa</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Leight.</t>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1769,10 +1774,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>548706.4407073758</v>
+        <v>548676.2777817947</v>
       </c>
       <c r="R11" t="n">
-        <v>6316820.51631712</v>
+        <v>6316878.998678687</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1815,11 +1820,6 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>På björk och al</t>
         </is>
       </c>
       <c r="AD11" t="b">

--- a/artfynd/A 19990-2019.xlsx
+++ b/artfynd/A 19990-2019.xlsx
@@ -913,10 +913,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>74918827</v>
+        <v>74918824</v>
       </c>
       <c r="B4" t="n">
-        <v>103265</v>
+        <v>88933</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -925,42 +925,40 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>221144</v>
+        <v>256335</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Taggfingersvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Ramaria karstenii</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Sacc. &amp; P.Syd.) Corner</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Fagraskog, Sm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>548731.5793738363</v>
+        <v>548761.3979890828</v>
       </c>
       <c r="R4" t="n">
-        <v>6316818.087442902</v>
+        <v>6316789.019183607</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1030,10 +1028,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>74918841</v>
+        <v>74918837</v>
       </c>
       <c r="B5" t="n">
-        <v>73680</v>
+        <v>90638</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1042,25 +1040,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>306</v>
+        <v>1968</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Kornig nållav</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Chaenotheca chlorella</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1072,10 +1070,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>548718.5936764533</v>
+        <v>548676.2777817947</v>
       </c>
       <c r="R5" t="n">
-        <v>6316901.286082684</v>
+        <v>6316878.998678687</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1145,10 +1143,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>74918848</v>
+        <v>74918827</v>
       </c>
       <c r="B6" t="n">
-        <v>103178</v>
+        <v>103265</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1161,21 +1159,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>221141</v>
+        <v>221144</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Gullviva</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Primula veris</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1189,10 +1187,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>548759.7599674745</v>
+        <v>548731.5793738363</v>
       </c>
       <c r="R6" t="n">
-        <v>6316928.463234497</v>
+        <v>6316818.087442902</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1219,7 +1217,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2018-11-02</t>
+          <t>2018-11-09</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1229,7 +1227,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2018-11-02</t>
+          <t>2018-11-09</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1262,10 +1260,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>74918851</v>
+        <v>74918841</v>
       </c>
       <c r="B7" t="n">
-        <v>103265</v>
+        <v>73680</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1278,38 +1276,36 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>221144</v>
+        <v>306</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Kornig nållav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Chaenotheca chlorella</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Fagraskog, Sm</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>548759.7599674745</v>
+        <v>548718.5936764533</v>
       </c>
       <c r="R7" t="n">
-        <v>6316928.463234497</v>
+        <v>6316901.286082684</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1379,10 +1375,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>74918845</v>
+        <v>74918848</v>
       </c>
       <c r="B8" t="n">
-        <v>4711</v>
+        <v>103178</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1395,28 +1391,27 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100299</v>
+        <v>221141</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Thomsons trägnagare</t>
+          <t>Gullviva</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Cacotemnus thomsoni</t>
+          <t>Primula veris</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Kraatz, 1881)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1424,10 +1419,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>548718.5936764533</v>
+        <v>548759.7599674745</v>
       </c>
       <c r="R8" t="n">
-        <v>6316901.286082684</v>
+        <v>6316928.463234497</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1497,10 +1492,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>74918868</v>
+        <v>74918851</v>
       </c>
       <c r="B9" t="n">
-        <v>73507</v>
+        <v>103265</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1513,36 +1508,38 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6428</v>
+        <v>221144</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Rostfläck</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Arthonia vinosa</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Leight.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Fagraskog, Sm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>548706.4407073758</v>
+        <v>548759.7599674745</v>
       </c>
       <c r="R9" t="n">
-        <v>6316820.51631712</v>
+        <v>6316928.463234497</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1585,11 +1582,6 @@
       <c r="AB9" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>På björk och al</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1617,10 +1609,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>74918824</v>
+        <v>74918845</v>
       </c>
       <c r="B10" t="n">
-        <v>88933</v>
+        <v>4711</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1629,40 +1621,43 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>256335</v>
+        <v>100299</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Taggfingersvamp</t>
+          <t>Thomsons trägnagare</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Ramaria karstenii</t>
+          <t>Cacotemnus thomsoni</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Sacc. &amp; P.Syd.) Corner</t>
+          <t>(Kraatz, 1881)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Fagraskog, Sm</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>548761.3979890828</v>
+        <v>548718.5936764533</v>
       </c>
       <c r="R10" t="n">
-        <v>6316789.019183607</v>
+        <v>6316901.286082684</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1689,7 +1684,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2018-11-09</t>
+          <t>2018-11-02</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1699,7 +1694,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2018-11-09</t>
+          <t>2018-11-02</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1732,10 +1727,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>74918837</v>
+        <v>74918868</v>
       </c>
       <c r="B11" t="n">
-        <v>90638</v>
+        <v>73507</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1744,25 +1739,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1968</v>
+        <v>6428</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Rostfläck</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Arthonia vinosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+          <t>Leight.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1774,10 +1769,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>548676.2777817947</v>
+        <v>548706.4407073758</v>
       </c>
       <c r="R11" t="n">
-        <v>6316878.998678687</v>
+        <v>6316820.51631712</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1820,6 +1815,11 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>På björk och al</t>
         </is>
       </c>
       <c r="AD11" t="b">
